--- a/Python/output/case-study/inventory-SA-FA-KPI-2.xlsx
+++ b/Python/output/case-study/inventory-SA-FA-KPI-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E1BC80-9872-D34C-A1F1-15337D0699E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5BC7C4-F038-A24C-853E-12EFF29EB4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17160" yWindow="6060" windowWidth="27640" windowHeight="16940" xr2:uid="{60485845-0DA1-2945-B400-7013F7AAED40}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,6 +171,12 @@
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -515,8 +521,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -895,7 +902,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -918,56 +925,56 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>48049.404243621597</v>
-      </c>
-      <c r="C2">
-        <v>50251.026462516696</v>
-      </c>
-      <c r="D2">
-        <v>459.49284765506201</v>
+      <c r="B2" s="1">
+        <v>58978.210700000003</v>
+      </c>
+      <c r="C2" s="1">
+        <v>65297.421399999999</v>
+      </c>
+      <c r="D2" s="1">
+        <v>452.11432400000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.5</v>
       </c>
-      <c r="B3">
-        <v>47625.096231028801</v>
-      </c>
-      <c r="C3">
-        <v>49079.521731131303</v>
-      </c>
-      <c r="D3">
-        <v>448.21210398198002</v>
+      <c r="B3" s="1">
+        <v>58645.994899999998</v>
+      </c>
+      <c r="C3" s="1">
+        <v>63397.227700000003</v>
+      </c>
+      <c r="D3" s="1">
+        <v>481.977799</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>46961.908460129504</v>
-      </c>
-      <c r="C4">
-        <v>46441.141555411501</v>
-      </c>
-      <c r="D4">
-        <v>455.53822398088897</v>
+      <c r="B4" s="1">
+        <v>58356.972800000003</v>
+      </c>
+      <c r="C4" s="1">
+        <v>61986.729800000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>506.983678</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>46529.9701876092</v>
-      </c>
-      <c r="C5">
-        <v>44637.930639392704</v>
-      </c>
-      <c r="D5">
-        <v>510.64477071234899</v>
+      <c r="B5" s="1">
+        <v>58043.948799999998</v>
+      </c>
+      <c r="C5" s="1">
+        <v>59709.207999999999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>563.56515899999999</v>
       </c>
     </row>
   </sheetData>

--- a/Python/output/case-study/inventory-SA-FA-KPI-2.xlsx
+++ b/Python/output/case-study/inventory-SA-FA-KPI-2.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27715"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/local_ysong3/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5BC7C4-F038-A24C-853E-12EFF29EB4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17160" yWindow="6060" windowWidth="27640" windowHeight="16940" xr2:uid="{60485845-0DA1-2945-B400-7013F7AAED40}"/>
+    <workbookView xWindow="21120" yWindow="8000" windowWidth="27640" windowHeight="16940"/>
   </bookViews>
   <sheets>
     <sheet name="Penalty_SA_FAresults-KPI" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -28,17 +35,17 @@
     <t>salvage</t>
   </si>
   <si>
-    <t>penalty.1</t>
+    <t>Inventory</t>
   </si>
   <si>
-    <t>Inventory</t>
+    <t>penalty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,12 +178,6 @@
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -521,9 +522,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -898,18 +898,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4A8650-BA40-9747-BAF7-E491450859F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -918,63 +918,63 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>58978.210700000003</v>
-      </c>
-      <c r="C2" s="1">
-        <v>65297.421399999999</v>
-      </c>
-      <c r="D2" s="1">
-        <v>452.11432400000001</v>
+      <c r="B2">
+        <v>57327.541495994497</v>
+      </c>
+      <c r="C2">
+        <v>57823.892526363401</v>
+      </c>
+      <c r="D2">
+        <v>593.76981532608602</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.5</v>
       </c>
-      <c r="B3" s="1">
-        <v>58645.994899999998</v>
-      </c>
-      <c r="C3" s="1">
-        <v>63397.227700000003</v>
-      </c>
-      <c r="D3" s="1">
-        <v>481.977799</v>
+      <c r="B3">
+        <v>57254.7159316709</v>
+      </c>
+      <c r="C3">
+        <v>57092.173462142397</v>
+      </c>
+      <c r="D3">
+        <v>606.87144147307595</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>58356.972800000003</v>
-      </c>
-      <c r="C4" s="1">
-        <v>61986.729800000001</v>
-      </c>
-      <c r="D4" s="1">
-        <v>506.983678</v>
+      <c r="B4">
+        <v>57112.915270917998</v>
+      </c>
+      <c r="C4">
+        <v>56454.975324331201</v>
+      </c>
+      <c r="D4">
+        <v>604.96069714873897</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
-        <v>58043.948799999998</v>
-      </c>
-      <c r="C5" s="1">
-        <v>59709.207999999999</v>
-      </c>
-      <c r="D5" s="1">
-        <v>563.56515899999999</v>
+      <c r="B5">
+        <v>56857.007945563899</v>
+      </c>
+      <c r="C5">
+        <v>55266.607517926597</v>
+      </c>
+      <c r="D5">
+        <v>643.68167241552601</v>
       </c>
     </row>
   </sheetData>

--- a/Python/output/case-study/inventory-SA-FA-KPI-2.xlsx
+++ b/Python/output/case-study/inventory-SA-FA-KPI-2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21120" yWindow="8000" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="1500" yWindow="10760" windowWidth="27640" windowHeight="16940"/>
   </bookViews>
   <sheets>
     <sheet name="Penalty_SA_FAresults-KPI" sheetId="1" r:id="rId1"/>
@@ -902,7 +902,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -926,13 +926,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>57327.541495994497</v>
+        <v>83754.347093073899</v>
       </c>
       <c r="C2">
-        <v>57823.892526363401</v>
+        <v>60269.168400622002</v>
       </c>
       <c r="D2">
-        <v>593.76981532608602</v>
+        <v>373.30580949705802</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -940,13 +940,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>57254.7159316709</v>
+        <v>82214.984532106304</v>
       </c>
       <c r="C3">
-        <v>57092.173462142397</v>
+        <v>58775.838255845403</v>
       </c>
       <c r="D3">
-        <v>606.87144147307595</v>
+        <v>419.33822568828901</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -954,13 +954,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>57112.915270917998</v>
+        <v>80743.654556177498</v>
       </c>
       <c r="C4">
-        <v>56454.975324331201</v>
+        <v>57316.646779459297</v>
       </c>
       <c r="D4">
-        <v>604.96069714873897</v>
+        <v>431.47672523089102</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -968,13 +968,13 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>56857.007945563899</v>
+        <v>78348.550411831704</v>
       </c>
       <c r="C5">
-        <v>55266.607517926597</v>
+        <v>54993.302038123802</v>
       </c>
       <c r="D5">
-        <v>643.68167241552601</v>
+        <v>503.23612824068499</v>
       </c>
     </row>
   </sheetData>
